--- a/EXCEL FILES/PortfolioCreditSpreadRisk.xlsx
+++ b/EXCEL FILES/PortfolioCreditSpreadRisk.xlsx
@@ -12,7 +12,7 @@
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="2" r:id="rId1"/>
-    <sheet name="MatrixCalculations" sheetId="66" r:id="rId2"/>
+    <sheet name="MatrixCalculations" sheetId="78" r:id="rId2"/>
     <sheet name="Correlations" sheetId="3" r:id="rId3"/>
     <sheet name="Parameter" sheetId="1" r:id="rId4"/>
   </sheets>

--- a/EXCEL FILES/PortfolioCreditSpreadRisk.xlsx
+++ b/EXCEL FILES/PortfolioCreditSpreadRisk.xlsx
@@ -12,7 +12,7 @@
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="2" r:id="rId1"/>
-    <sheet name="MatrixCalculations" sheetId="78" r:id="rId2"/>
+    <sheet name="MatrixCalculations" sheetId="81" r:id="rId2"/>
     <sheet name="Correlations" sheetId="3" r:id="rId3"/>
     <sheet name="Parameter" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -37,7 +37,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Portfolio Credit Spread Risk Calculation for 16.08.2023</t>
+    <t>Portfolio Credit Spread Risk Calculation for 30.09.2023</t>
   </si>
   <si>
     <t>Securities Market Value (Sum)</t>
@@ -55,7 +55,7 @@
     <t>relative to portfolio market value</t>
   </si>
   <si>
-    <t>Bond Portfolio on 16.08.2023</t>
+    <t>Bond Portfolio on 30.09.2023</t>
   </si>
   <si>
     <t>ISIN</t>
@@ -145,7 +145,7 @@
     <t>CHINA EVERBRIGHT BANK CO.LTD,LUXEMBOURG BRANCH</t>
   </si>
   <si>
-    <t>Single Asset x Correlation Value for 16.08.2023</t>
+    <t>Single Asset x Correlation Value for 30.09.2023</t>
   </si>
   <si>
     <t>RowNr</t>
@@ -187,7 +187,7 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Single Segment x MidVec for 16.08.2023</t>
+    <t>Single Segment x MidVec for 30.09.2023</t>
   </si>
   <si>
     <t>SEGMENT</t>
@@ -208,7 +208,7 @@
     <t>3 Total</t>
   </si>
   <si>
-    <t>Segment Risk x MidVec for 16.08.2023</t>
+    <t>Segment Risk x MidVec for 30.09.2023</t>
   </si>
   <si>
     <t>SEGMENT_A</t>
@@ -229,7 +229,7 @@
     <t>SEGMENT_A Total</t>
   </si>
   <si>
-    <t>Final calculation for 16.08.2023</t>
+    <t>Final calculation for 30.09.2023</t>
   </si>
   <si>
     <t>SegmentRisk</t>
@@ -241,7 +241,7 @@
     <t>Produkt</t>
   </si>
   <si>
-    <t>Correlation Data for 16.08.2023</t>
+    <t>Correlation Data for 30.09.2023</t>
   </si>
   <si>
     <t>EMMITENT_A</t>
@@ -900,20 +900,20 @@
     <row r="3">
       <c r="A3" s="4">
         <f>E14</f>
-        <v>139912940</v>
+        <v>151015063</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4">
         <f>MatrixCalculations!SEGMENT_RISK_TOTAL</f>
-        <v>817210576009</v>
+        <v>1417427382724</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4">
         <f>SQRT(D3)</f>
-        <v>903997</v>
+        <v>1190557.5931990859</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -921,7 +921,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="4">
         <f>H3*INDEX(Parameter!Scaling_Level_Parameters,2,4)/INDEX(Parameter!Scaling_Level_Parameters,1,4)</f>
-        <v>1198862.9742489271</v>
+        <v>1578893.975530118</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -947,7 +947,7 @@
     <row r="5">
       <c r="H5" s="5">
         <f>H3/A3</f>
-        <v>0.0064611393342174066</v>
+        <v>0.0078837009338537708</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -955,7 +955,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="5">
         <f>M3/A3</f>
-        <v>0.0085686354260651448</v>
+        <v>0.010455208534595771</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1034,14 +1034,14 @@
         <v>40000000</v>
       </c>
       <c r="E9" s="4">
-        <v>39790400</v>
+        <v>39795200</v>
       </c>
       <c r="F9" s="3">
         <v>0.26300000000000001</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" ref="G9:G13" si="0">E9*F9*0.01%</f>
-        <v>1046.4875200000001</v>
+        <v>1046.61376</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1054,13 +1054,13 @@
       </c>
       <c r="K9" s="4">
         <f t="shared" ref="K9:K13" si="1">G9*I9</f>
-        <v>52324.376000000004</v>
+        <v>52330.687999999995</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M9" s="4">
-        <v>582355</v>
+        <v>577296</v>
       </c>
     </row>
     <row r="10">
@@ -1077,14 +1077,14 @@
         <v>39000000</v>
       </c>
       <c r="E10" s="4">
-        <v>35429160</v>
+        <v>35431500</v>
       </c>
       <c r="F10" s="3">
         <v>2.6219999999999999</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>9289.5257519999996</v>
+        <v>9290.1393000000007</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1097,13 +1097,13 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>464476.28759999998</v>
+        <v>464506.96500000003</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="4">
-        <v>781775</v>
+        <v>774000</v>
       </c>
     </row>
     <row r="11">
@@ -1120,14 +1120,14 @@
         <v>38000000</v>
       </c>
       <c r="E11" s="4">
-        <v>36624780</v>
+        <v>36604260</v>
       </c>
       <c r="F11" s="3">
         <v>1.0560000000000001</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>3867.5767680000004</v>
+        <v>3865.4098560000002</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1140,13 +1140,13 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>193378.83840000001</v>
+        <v>193270.49280000001</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M11" s="4">
-        <v>631740</v>
+        <v>626611</v>
       </c>
     </row>
     <row r="12">
@@ -1163,14 +1163,14 @@
         <v>30000000</v>
       </c>
       <c r="E12" s="4">
-        <v>28068600</v>
+        <v>26695200</v>
       </c>
       <c r="F12" s="3">
         <v>3.2109999999999999</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>9012.8274600000004</v>
+        <v>8571.8287200000013</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1183,13 +1183,13 @@
       </c>
       <c r="K12" s="4">
         <f t="shared" si="1"/>
-        <v>450641.37300000002</v>
+        <v>428591.43600000005</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="4">
-        <v>668903</v>
+        <v>646831</v>
       </c>
     </row>
     <row r="13">
@@ -1206,14 +1206,14 @@
         <v>14000000</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
+        <v>12488903</v>
       </c>
       <c r="F13" s="3">
         <v>1.1359999999999999</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1418.7393807999999</v>
       </c>
       <c r="H13" s="3">
         <v>3</v>
@@ -1226,20 +1226,20 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>709369.69039999996</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M13" s="4">
-        <v>0</v>
+        <v>709500</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <f>SUM(E9:E13)</f>
-        <v>139912940</v>
+        <v>151015063</v>
       </c>
       <c r="M14" s="8"/>
     </row>
@@ -1345,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="4">
-        <v>52300</v>
+        <v>52350</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>52300</v>
+        <v>52350</v>
       </c>
     </row>
     <row r="5" outlineLevel="2">
@@ -1397,7 +1397,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="4">
-        <v>193400</v>
+        <v>193250</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
@@ -1409,7 +1409,7 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="H6" s="4">
-        <v>125710</v>
+        <v>125612.5</v>
       </c>
     </row>
     <row r="7" outlineLevel="2">
@@ -1423,7 +1423,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="4">
-        <v>450650</v>
+        <v>428600</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
@@ -1435,7 +1435,7 @@
         <v>0.22727249999999999</v>
       </c>
       <c r="H7" s="4">
-        <v>102420.35212499999</v>
+        <v>97408.993499999997</v>
       </c>
     </row>
     <row r="8" outlineLevel="1">
@@ -1450,7 +1450,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="4">
         <f>SUBTOTAL(9,H4:H7)</f>
-        <v>582355.35212499998</v>
+        <v>577296.49349999998</v>
       </c>
     </row>
     <row r="9" outlineLevel="2">
@@ -1490,7 +1490,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="4">
-        <v>52300</v>
+        <v>52350</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>25</v>
@@ -1502,7 +1502,7 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="H10" s="4">
-        <v>33995</v>
+        <v>34027.5</v>
       </c>
     </row>
     <row r="11" outlineLevel="2">
@@ -1516,7 +1516,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="4">
-        <v>193400</v>
+        <v>193250</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -1528,7 +1528,7 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="H11" s="4">
-        <v>125710</v>
+        <v>125612.5</v>
       </c>
     </row>
     <row r="12" outlineLevel="2">
@@ -1542,7 +1542,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="4">
-        <v>450650</v>
+        <v>428600</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -1554,7 +1554,7 @@
         <v>0.34964999999999996</v>
       </c>
       <c r="H12" s="4">
-        <v>157569.77249999999</v>
+        <v>149859.98999999999</v>
       </c>
     </row>
     <row r="13" outlineLevel="1">
@@ -1569,7 +1569,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="4">
         <f>SUBTOTAL(9,H9:H12)</f>
-        <v>781774.77249999996</v>
+        <v>773999.98999999999</v>
       </c>
     </row>
     <row r="14" outlineLevel="2">
@@ -1583,7 +1583,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="4">
-        <v>193400</v>
+        <v>193250</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="4">
-        <v>193400</v>
+        <v>193250</v>
       </c>
     </row>
     <row r="15" outlineLevel="2">
@@ -1609,7 +1609,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="4">
-        <v>52300</v>
+        <v>52350</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
@@ -1621,7 +1621,7 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="H15" s="4">
-        <v>33995</v>
+        <v>34027.5</v>
       </c>
     </row>
     <row r="16" outlineLevel="2">
@@ -1661,7 +1661,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="4">
-        <v>450650</v>
+        <v>428600</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -1673,7 +1673,7 @@
         <v>0.22727249999999999</v>
       </c>
       <c r="H17" s="4">
-        <v>102420.35212499999</v>
+        <v>97408.993499999997</v>
       </c>
     </row>
     <row r="18" outlineLevel="1">
@@ -1688,7 +1688,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4">
         <f>SUBTOTAL(9,H14:H17)</f>
-        <v>631740.35212499998</v>
+        <v>626611.49349999998</v>
       </c>
     </row>
     <row r="19" outlineLevel="2">
@@ -1702,7 +1702,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="4">
-        <v>450650</v>
+        <v>428600</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>29</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="4">
-        <v>450650</v>
+        <v>428600</v>
       </c>
     </row>
     <row r="20" outlineLevel="2">
@@ -1728,7 +1728,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="4">
-        <v>52300</v>
+        <v>52350</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>29</v>
@@ -1740,7 +1740,7 @@
         <v>0.22727249999999999</v>
       </c>
       <c r="H20" s="4">
-        <v>11886.35175</v>
+        <v>11897.715375</v>
       </c>
     </row>
     <row r="21" outlineLevel="2">
@@ -1780,7 +1780,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="4">
-        <v>193400</v>
+        <v>193250</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>29</v>
@@ -1792,7 +1792,7 @@
         <v>0.22727249999999999</v>
       </c>
       <c r="H22" s="4">
-        <v>43954.501499999998</v>
+        <v>43920.410624999997</v>
       </c>
     </row>
     <row r="23" outlineLevel="1">
@@ -1807,7 +1807,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="4">
         <f>SUBTOTAL(9,H19:H22)</f>
-        <v>668903.27824999997</v>
+        <v>646830.55099999998</v>
       </c>
     </row>
     <row r="24" outlineLevel="2">
@@ -1821,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="4">
-        <v>0</v>
+        <v>709500</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>33</v>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>0</v>
+        <v>709500</v>
       </c>
     </row>
     <row r="25" outlineLevel="1">
@@ -1848,7 +1848,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="13">
         <f>SUBTOTAL(9,H24)</f>
-        <v>0</v>
+        <v>709500</v>
       </c>
     </row>
     <row r="26">
@@ -1863,7 +1863,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="13">
         <f>SUBTOTAL(9,H2:H24)</f>
-        <v>2664773.7549999994</v>
+        <v>3334238.5279999999</v>
       </c>
     </row>
     <row r="28">
@@ -1922,13 +1922,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="4">
-        <v>52300</v>
+        <v>52350</v>
       </c>
       <c r="F31" s="4">
-        <v>582355</v>
+        <v>577296</v>
       </c>
       <c r="G31" s="4">
-        <v>30457166500</v>
+        <v>30221445600</v>
       </c>
     </row>
     <row r="32" outlineLevel="2">
@@ -1948,10 +1948,10 @@
         <v>464500</v>
       </c>
       <c r="F32" s="4">
-        <v>781775</v>
+        <v>774000</v>
       </c>
       <c r="G32" s="4">
-        <v>363134487500</v>
+        <v>359523000000</v>
       </c>
     </row>
     <row r="33" outlineLevel="2">
@@ -1968,13 +1968,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="4">
-        <v>193400</v>
+        <v>193250</v>
       </c>
       <c r="F33" s="4">
-        <v>631740</v>
+        <v>626611</v>
       </c>
       <c r="G33" s="4">
-        <v>122178516000</v>
+        <v>121092575750</v>
       </c>
     </row>
     <row r="34" outlineLevel="2">
@@ -1991,13 +1991,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="4">
-        <v>450650</v>
+        <v>428600</v>
       </c>
       <c r="F34" s="4">
-        <v>668903</v>
+        <v>646831</v>
       </c>
       <c r="G34" s="4">
-        <v>301441136950</v>
+        <v>277231766600</v>
       </c>
     </row>
     <row r="35" outlineLevel="1">
@@ -2011,7 +2011,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4">
         <f>SUBTOTAL(9,G31:G34)</f>
-        <v>817211306950</v>
+        <v>788068787950</v>
       </c>
     </row>
     <row r="36" outlineLevel="2">
@@ -2028,13 +2028,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="4">
-        <v>0</v>
+        <v>709500</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>709500</v>
       </c>
       <c r="G36" s="4">
-        <v>0</v>
+        <v>503390250000</v>
       </c>
     </row>
     <row r="37" outlineLevel="1">
@@ -2048,7 +2048,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13">
         <f>SUBTOTAL(9,G36)</f>
-        <v>0</v>
+        <v>503390250000</v>
       </c>
     </row>
     <row r="38">
@@ -2062,7 +2062,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13">
         <f>SUBTOTAL(9,G29:G36)</f>
-        <v>817211306950</v>
+        <v>1291459037950</v>
       </c>
     </row>
     <row r="40">
@@ -2121,13 +2121,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="4">
-        <v>903997</v>
+        <v>887732</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
       </c>
       <c r="G43" s="4">
-        <v>903997</v>
+        <v>887732</v>
       </c>
     </row>
     <row r="44" outlineLevel="2">
@@ -2144,13 +2144,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="4">
-        <v>0</v>
+        <v>709500</v>
       </c>
       <c r="F44" s="5">
         <v>0.10000000000000001</v>
       </c>
       <c r="G44" s="4">
-        <v>0</v>
+        <v>70950</v>
       </c>
     </row>
     <row r="45" outlineLevel="1">
@@ -2164,7 +2164,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="4">
         <f>SUBTOTAL(9,G43:G44)</f>
-        <v>903997</v>
+        <v>958682</v>
       </c>
     </row>
     <row r="46" outlineLevel="2">
@@ -2181,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="E46" s="4">
-        <v>903997</v>
+        <v>887732</v>
       </c>
       <c r="F46" s="5">
         <v>0.10000000000000001</v>
       </c>
       <c r="G46" s="4">
-        <v>90399.700000000012</v>
+        <v>88773.200000000012</v>
       </c>
     </row>
     <row r="47" outlineLevel="2">
@@ -2204,13 +2204,13 @@
         <v>3</v>
       </c>
       <c r="E47" s="4">
-        <v>0</v>
+        <v>709500</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
       </c>
       <c r="G47" s="4">
-        <v>0</v>
+        <v>709500</v>
       </c>
     </row>
     <row r="48" outlineLevel="1">
@@ -2224,7 +2224,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="13">
         <f>SUBTOTAL(9,G46:G47)</f>
-        <v>90399.700000000012</v>
+        <v>798273.19999999995</v>
       </c>
     </row>
     <row r="49">
@@ -2238,7 +2238,7 @@
       <c r="F49" s="15"/>
       <c r="G49" s="13">
         <f>SUBTOTAL(9,G41:G47)</f>
-        <v>994396.69999999995</v>
+        <v>1756955.2</v>
       </c>
     </row>
     <row r="51">
@@ -2265,14 +2265,14 @@
         <v>1</v>
       </c>
       <c r="B53" s="4">
-        <v>903997</v>
+        <v>887732</v>
       </c>
       <c r="C53" s="4">
-        <v>903997</v>
+        <v>958682</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" ref="D53:D54" si="0">B53*C53</f>
-        <v>817210576009</v>
+        <v>851052689224</v>
       </c>
     </row>
     <row r="54">
@@ -2280,20 +2280,20 @@
         <v>3</v>
       </c>
       <c r="B54" s="4">
-        <v>0</v>
+        <v>709500</v>
       </c>
       <c r="C54" s="4">
-        <v>90400</v>
+        <v>798273</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>566374693500</v>
       </c>
     </row>
     <row r="55">
       <c r="D55" s="9">
         <f>SUM(D53:D54)</f>
-        <v>817210576009</v>
+        <v>1417427382724</v>
       </c>
     </row>
   </sheetData>
